--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.1881650818575</v>
+        <v>10.32689766666667</v>
       </c>
       <c r="H2">
-        <v>10.1881650818575</v>
+        <v>30.980693</v>
       </c>
       <c r="I2">
-        <v>0.2027910551156987</v>
+        <v>0.2044815006034941</v>
       </c>
       <c r="J2">
-        <v>0.2027910551156987</v>
+        <v>0.204481500603494</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>1075.021675540057</v>
+        <v>1161.914285313552</v>
       </c>
       <c r="R2">
-        <v>1075.021675540057</v>
+        <v>10457.22856782197</v>
       </c>
       <c r="S2">
-        <v>0.063768206198585</v>
+        <v>0.06697409125584219</v>
       </c>
       <c r="T2">
-        <v>0.063768206198585</v>
+        <v>0.06697409125584218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.1881650818575</v>
+        <v>10.32689766666667</v>
       </c>
       <c r="H3">
-        <v>10.1881650818575</v>
+        <v>30.980693</v>
       </c>
       <c r="I3">
-        <v>0.2027910551156987</v>
+        <v>0.2044815006034941</v>
       </c>
       <c r="J3">
-        <v>0.2027910551156987</v>
+        <v>0.204481500603494</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>1081.733470429768</v>
+        <v>1097.898610868313</v>
       </c>
       <c r="R3">
-        <v>1081.733470429768</v>
+        <v>9881.087497814813</v>
       </c>
       <c r="S3">
-        <v>0.06416633688769385</v>
+        <v>0.06328415330061449</v>
       </c>
       <c r="T3">
-        <v>0.06416633688769385</v>
+        <v>0.06328415330061449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.1881650818575</v>
+        <v>10.32689766666667</v>
       </c>
       <c r="H4">
-        <v>10.1881650818575</v>
+        <v>30.980693</v>
       </c>
       <c r="I4">
-        <v>0.2027910551156987</v>
+        <v>0.2044815006034941</v>
       </c>
       <c r="J4">
-        <v>0.2027910551156987</v>
+        <v>0.204481500603494</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>1261.951335691437</v>
+        <v>1287.677964514604</v>
       </c>
       <c r="R4">
-        <v>1261.951335691437</v>
+        <v>11589.10168063144</v>
       </c>
       <c r="S4">
-        <v>0.07485651202941984</v>
+        <v>0.07422325604703739</v>
       </c>
       <c r="T4">
-        <v>0.07485651202941984</v>
+        <v>0.07422325604703739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.3584881895594</v>
+        <v>29.37031933333333</v>
       </c>
       <c r="H5">
-        <v>29.3584881895594</v>
+        <v>88.110958</v>
       </c>
       <c r="I5">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="J5">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>3097.811128037683</v>
+        <v>3304.554252316512</v>
       </c>
       <c r="R5">
-        <v>3097.811128037683</v>
+        <v>29740.9882708486</v>
       </c>
       <c r="S5">
-        <v>0.1837561635003679</v>
+        <v>0.190478351847445</v>
       </c>
       <c r="T5">
-        <v>0.1837561635003679</v>
+        <v>0.190478351847445</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.3584881895594</v>
+        <v>29.37031933333333</v>
       </c>
       <c r="H6">
-        <v>29.3584881895594</v>
+        <v>88.110958</v>
       </c>
       <c r="I6">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="J6">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>3117.152015176548</v>
+        <v>3122.489816172809</v>
       </c>
       <c r="R6">
-        <v>3117.152015176548</v>
+        <v>28102.40834555528</v>
       </c>
       <c r="S6">
-        <v>0.1849034275111286</v>
+        <v>0.1799839459219328</v>
       </c>
       <c r="T6">
-        <v>0.1849034275111286</v>
+        <v>0.1799839459219329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.3584881895594</v>
+        <v>29.37031933333333</v>
       </c>
       <c r="H7">
-        <v>29.3584881895594</v>
+        <v>88.110958</v>
       </c>
       <c r="I7">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="J7">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>3636.472621617653</v>
+        <v>3662.233735341937</v>
       </c>
       <c r="R7">
-        <v>3636.472621617653</v>
+        <v>32960.10361807743</v>
       </c>
       <c r="S7">
-        <v>0.2157085212763999</v>
+        <v>0.2110954133977493</v>
       </c>
       <c r="T7">
-        <v>0.2157085212763999</v>
+        <v>0.2110954133977493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.6930630515976</v>
+        <v>10.80562866666667</v>
       </c>
       <c r="H8">
-        <v>10.6930630515976</v>
+        <v>32.416886</v>
       </c>
       <c r="I8">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="J8">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>1128.296848944276</v>
+        <v>1215.777933979104</v>
       </c>
       <c r="R8">
-        <v>1128.296848944276</v>
+        <v>10942.00140581193</v>
       </c>
       <c r="S8">
-        <v>0.06692838642583389</v>
+        <v>0.07007885463356914</v>
       </c>
       <c r="T8">
-        <v>0.06692838642583389</v>
+        <v>0.07007885463356914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.6930630515976</v>
+        <v>10.80562866666667</v>
       </c>
       <c r="H9">
-        <v>10.6930630515976</v>
+        <v>32.416886</v>
       </c>
       <c r="I9">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="J9">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>1135.341262277633</v>
+        <v>1148.794641490958</v>
       </c>
       <c r="R9">
-        <v>1135.341262277633</v>
+        <v>10339.15177341863</v>
       </c>
       <c r="S9">
-        <v>0.0673462473975802</v>
+        <v>0.06621785972161899</v>
       </c>
       <c r="T9">
-        <v>0.0673462473975802</v>
+        <v>0.06621785972161899</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.6930630515976</v>
+        <v>10.80562866666667</v>
       </c>
       <c r="H10">
-        <v>10.6930630515976</v>
+        <v>32.416886</v>
       </c>
       <c r="I10">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="J10">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>1324.490238642276</v>
+        <v>1347.371725363986</v>
       </c>
       <c r="R10">
-        <v>1324.490238642276</v>
+        <v>12126.34552827588</v>
       </c>
       <c r="S10">
-        <v>0.0785661987729908</v>
+        <v>0.07766407387419066</v>
       </c>
       <c r="T10">
-        <v>0.0785661987729908</v>
+        <v>0.07766407387419066</v>
       </c>
     </row>
   </sheetData>
